--- a/biology/Histoire de la zoologie et de la botanique/William_Turton/William_Turton.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Turton/William_Turton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Turton est un naturaliste britannique, né le 21 mai 1762 à Olveston, Gloucestershire et mort le 28 décembre 1835 à Bideford.
 Il fait ses études à l’Oriel College à Oxford. Il commence à pratiquer la médecine à Swansea et consacre ses loisirs à l’étude de l’histoire naturelle, particulièrement la conchyliologie. Il fait paraître plusieurs livres illustrés sur les coquillages et traduit la treizième édition du Systema naturae de Carl von Linné (1707-1778) supervisé par Johann Friedrich Gmelin (1748-1804). Sa collection de coquillages est actuellement conservée au National Museum of Natural History à Washington, DC.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A Medical Glossary; in which the words in the various branches of medicine are deduced from their original languages, and explained (Londres, 1797, réédité en 1802).
 A Conchological Dictionary of the British Islands, by W. Turton, assisted by his daughter (Londres, 1819).
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « William Turton » (voir la liste des auteurs).</t>
         </is>
